--- a/tests/fixtures/orderforms/1508.34.balsamic_umi.xlsx
+++ b/tests/fixtures/orderforms/1508.34.balsamic_umi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Downloads/orderform1508.34/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E5ABB4-C170-5845-8287-B7A26479EE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B146852A-9037-6149-AC5A-5E7446488450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="-21120" windowWidth="19000" windowHeight="21120" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19400" yWindow="-21100" windowWidth="19000" windowHeight="21100" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="843">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3610,6 +3610,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>GMSsolid</t>
   </si>
 </sst>
 </file>
@@ -4785,6 +4788,10 @@
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4817,10 +4824,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -5833,8 +5836,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15:AJ16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S48" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15:Z76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -12126,56 +12129,56 @@
       <c r="AJ8" s="30"/>
     </row>
     <row r="9" spans="1:1026" s="35" customFormat="1" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="160"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="161"/>
       <c r="O9" s="31"/>
-      <c r="P9" s="162" t="s">
+      <c r="P9" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="162"/>
+      <c r="Q9" s="163"/>
       <c r="R9" s="34"/>
       <c r="S9" s="106" t="s">
         <v>692</v>
       </c>
       <c r="T9"/>
-      <c r="U9" s="163" t="s">
+      <c r="U9" s="164" t="s">
         <v>708</v>
       </c>
-      <c r="V9" s="164"/>
-      <c r="W9" s="164"/>
-      <c r="X9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="166"/>
       <c r="Y9" s="32"/>
       <c r="Z9" s="33" t="s">
         <v>13</v>
       </c>
       <c r="AA9" s="34"/>
-      <c r="AB9" s="161" t="s">
+      <c r="AB9" s="162" t="s">
         <v>710</v>
       </c>
-      <c r="AC9" s="161"/>
-      <c r="AD9" s="161"/>
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="162"/>
       <c r="AE9" s="32"/>
-      <c r="AF9" s="166" t="s">
+      <c r="AF9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="AG9" s="167"/>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="168"/>
+      <c r="AG9" s="168"/>
+      <c r="AH9" s="168"/>
+      <c r="AI9" s="168"/>
+      <c r="AJ9" s="169"/>
     </row>
     <row r="10" spans="1:1026" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
@@ -14606,7 +14609,7 @@
       <c r="P16" s="70"/>
       <c r="Q16" s="85"/>
       <c r="R16" s="74"/>
-      <c r="S16" s="169" t="s">
+      <c r="S16" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U16" s="88"/>
@@ -15667,7 +15670,7 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="85"/>
       <c r="R17" s="74"/>
-      <c r="S17" s="169" t="s">
+      <c r="S17" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U17" s="88"/>
@@ -16724,7 +16727,7 @@
       <c r="P18" s="70"/>
       <c r="Q18" s="85"/>
       <c r="R18" s="74"/>
-      <c r="S18" s="169" t="s">
+      <c r="S18" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U18" s="88"/>
@@ -17781,7 +17784,7 @@
       <c r="P19" s="70"/>
       <c r="Q19" s="85"/>
       <c r="R19" s="74"/>
-      <c r="S19" s="169" t="s">
+      <c r="S19" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U19" s="88"/>
@@ -18838,7 +18841,7 @@
       <c r="P20" s="70"/>
       <c r="Q20" s="85"/>
       <c r="R20" s="74"/>
-      <c r="S20" s="169" t="s">
+      <c r="S20" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U20" s="88"/>
@@ -19895,7 +19898,7 @@
       <c r="P21" s="70"/>
       <c r="Q21" s="85"/>
       <c r="R21" s="74"/>
-      <c r="S21" s="169" t="s">
+      <c r="S21" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U21" s="88"/>
@@ -20952,7 +20955,7 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="85"/>
       <c r="R22" s="74"/>
-      <c r="S22" s="169" t="s">
+      <c r="S22" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U22" s="88"/>
@@ -22009,7 +22012,7 @@
       <c r="P23" s="70"/>
       <c r="Q23" s="85"/>
       <c r="R23" s="74"/>
-      <c r="S23" s="169" t="s">
+      <c r="S23" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U23" s="88"/>
@@ -23066,7 +23069,7 @@
       <c r="P24" s="70"/>
       <c r="Q24" s="85"/>
       <c r="R24" s="74"/>
-      <c r="S24" s="169" t="s">
+      <c r="S24" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U24" s="88"/>
@@ -24123,7 +24126,7 @@
       <c r="P25" s="70"/>
       <c r="Q25" s="85"/>
       <c r="R25" s="74"/>
-      <c r="S25" s="169" t="s">
+      <c r="S25" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U25" s="88"/>
@@ -25180,7 +25183,7 @@
       <c r="P26" s="70"/>
       <c r="Q26" s="85"/>
       <c r="R26" s="74"/>
-      <c r="S26" s="169" t="s">
+      <c r="S26" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U26" s="88"/>
@@ -26237,7 +26240,7 @@
       <c r="P27" s="70"/>
       <c r="Q27" s="85"/>
       <c r="R27" s="74"/>
-      <c r="S27" s="169" t="s">
+      <c r="S27" s="158" t="s">
         <v>71</v>
       </c>
       <c r="T27"/>
@@ -26305,7 +26308,7 @@
       <c r="P28" s="70"/>
       <c r="Q28" s="85"/>
       <c r="R28" s="74"/>
-      <c r="S28" s="169" t="s">
+      <c r="S28" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U28" s="88"/>
@@ -27362,7 +27365,7 @@
       <c r="P29" s="70"/>
       <c r="Q29" s="85"/>
       <c r="R29" s="74"/>
-      <c r="S29" s="169" t="s">
+      <c r="S29" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U29" s="88"/>
@@ -28419,7 +28422,7 @@
       <c r="P30" s="70"/>
       <c r="Q30" s="85"/>
       <c r="R30" s="74"/>
-      <c r="S30" s="169" t="s">
+      <c r="S30" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U30" s="88"/>
@@ -29476,7 +29479,7 @@
       <c r="P31" s="70"/>
       <c r="Q31" s="85"/>
       <c r="R31" s="74"/>
-      <c r="S31" s="169" t="s">
+      <c r="S31" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U31" s="88"/>
@@ -30533,7 +30536,7 @@
       <c r="P32" s="70"/>
       <c r="Q32" s="85"/>
       <c r="R32" s="74"/>
-      <c r="S32" s="169" t="s">
+      <c r="S32" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U32" s="88"/>
@@ -31590,7 +31593,7 @@
       <c r="P33" s="70"/>
       <c r="Q33" s="85"/>
       <c r="R33" s="74"/>
-      <c r="S33" s="169" t="s">
+      <c r="S33" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U33" s="88"/>
@@ -32647,7 +32650,7 @@
       <c r="P34" s="70"/>
       <c r="Q34" s="85"/>
       <c r="R34" s="74"/>
-      <c r="S34" s="169" t="s">
+      <c r="S34" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U34" s="88"/>
@@ -33704,7 +33707,7 @@
       <c r="P35" s="70"/>
       <c r="Q35" s="85"/>
       <c r="R35" s="74"/>
-      <c r="S35" s="169" t="s">
+      <c r="S35" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U35" s="88"/>
@@ -34761,7 +34764,7 @@
       <c r="P36" s="70"/>
       <c r="Q36" s="85"/>
       <c r="R36" s="74"/>
-      <c r="S36" s="169" t="s">
+      <c r="S36" s="158" t="s">
         <v>71</v>
       </c>
       <c r="T36"/>
@@ -34829,7 +34832,7 @@
       <c r="P37" s="70"/>
       <c r="Q37" s="85"/>
       <c r="R37" s="74"/>
-      <c r="S37" s="169" t="s">
+      <c r="S37" s="158" t="s">
         <v>71</v>
       </c>
       <c r="T37"/>
@@ -34897,7 +34900,7 @@
       <c r="P38" s="70"/>
       <c r="Q38" s="85"/>
       <c r="R38" s="74"/>
-      <c r="S38" s="169" t="s">
+      <c r="S38" s="158" t="s">
         <v>71</v>
       </c>
       <c r="T38"/>
@@ -34906,7 +34909,9 @@
       <c r="W38" s="136"/>
       <c r="X38" s="137"/>
       <c r="Y38" s="72"/>
-      <c r="Z38" s="87"/>
+      <c r="Z38" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA38" s="74"/>
       <c r="AB38" s="90"/>
       <c r="AC38" s="90"/>
@@ -34965,7 +34970,7 @@
       <c r="P39" s="70"/>
       <c r="Q39" s="85"/>
       <c r="R39" s="74"/>
-      <c r="S39" s="169" t="s">
+      <c r="S39" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U39" s="88"/>
@@ -34973,7 +34978,9 @@
       <c r="W39" s="136"/>
       <c r="X39" s="137"/>
       <c r="Y39" s="72"/>
-      <c r="Z39" s="87"/>
+      <c r="Z39" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA39" s="74"/>
       <c r="AB39" s="90"/>
       <c r="AC39" s="90"/>
@@ -36022,7 +36029,7 @@
       <c r="P40" s="70"/>
       <c r="Q40" s="85"/>
       <c r="R40" s="74"/>
-      <c r="S40" s="169" t="s">
+      <c r="S40" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U40" s="88"/>
@@ -36030,7 +36037,9 @@
       <c r="W40" s="136"/>
       <c r="X40" s="137"/>
       <c r="Y40" s="72"/>
-      <c r="Z40" s="87"/>
+      <c r="Z40" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA40" s="74"/>
       <c r="AB40" s="90"/>
       <c r="AC40" s="90"/>
@@ -37079,7 +37088,7 @@
       <c r="P41" s="70"/>
       <c r="Q41" s="85"/>
       <c r="R41" s="74"/>
-      <c r="S41" s="169" t="s">
+      <c r="S41" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U41" s="88"/>
@@ -37087,7 +37096,9 @@
       <c r="W41" s="136"/>
       <c r="X41" s="137"/>
       <c r="Y41" s="72"/>
-      <c r="Z41" s="87"/>
+      <c r="Z41" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA41" s="74"/>
       <c r="AB41" s="90"/>
       <c r="AC41" s="90"/>
@@ -38136,7 +38147,7 @@
       <c r="P42" s="70"/>
       <c r="Q42" s="85"/>
       <c r="R42" s="74"/>
-      <c r="S42" s="169" t="s">
+      <c r="S42" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U42" s="88"/>
@@ -38144,7 +38155,9 @@
       <c r="W42" s="136"/>
       <c r="X42" s="137"/>
       <c r="Y42" s="72"/>
-      <c r="Z42" s="87"/>
+      <c r="Z42" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA42" s="74"/>
       <c r="AB42" s="90"/>
       <c r="AC42" s="90"/>
@@ -39193,7 +39206,7 @@
       <c r="P43" s="70"/>
       <c r="Q43" s="85"/>
       <c r="R43" s="74"/>
-      <c r="S43" s="169" t="s">
+      <c r="S43" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U43" s="88"/>
@@ -39201,7 +39214,9 @@
       <c r="W43" s="136"/>
       <c r="X43" s="137"/>
       <c r="Y43" s="72"/>
-      <c r="Z43" s="87"/>
+      <c r="Z43" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA43" s="74"/>
       <c r="AB43" s="90"/>
       <c r="AC43" s="90"/>
@@ -40250,7 +40265,7 @@
       <c r="P44" s="70"/>
       <c r="Q44" s="85"/>
       <c r="R44" s="74"/>
-      <c r="S44" s="169" t="s">
+      <c r="S44" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U44" s="88"/>
@@ -40258,7 +40273,9 @@
       <c r="W44" s="136"/>
       <c r="X44" s="137"/>
       <c r="Y44" s="72"/>
-      <c r="Z44" s="87"/>
+      <c r="Z44" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA44" s="74"/>
       <c r="AB44" s="90"/>
       <c r="AC44" s="90"/>
@@ -41307,7 +41324,7 @@
       <c r="P45" s="70"/>
       <c r="Q45" s="85"/>
       <c r="R45" s="74"/>
-      <c r="S45" s="169" t="s">
+      <c r="S45" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U45" s="88"/>
@@ -41315,7 +41332,9 @@
       <c r="W45" s="136"/>
       <c r="X45" s="137"/>
       <c r="Y45" s="72"/>
-      <c r="Z45" s="87"/>
+      <c r="Z45" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA45" s="74"/>
       <c r="AB45" s="90"/>
       <c r="AC45" s="90"/>
@@ -42364,7 +42383,7 @@
       <c r="P46" s="70"/>
       <c r="Q46" s="85"/>
       <c r="R46" s="74"/>
-      <c r="S46" s="169" t="s">
+      <c r="S46" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U46" s="88"/>
@@ -42372,7 +42391,9 @@
       <c r="W46" s="136"/>
       <c r="X46" s="137"/>
       <c r="Y46" s="72"/>
-      <c r="Z46" s="87"/>
+      <c r="Z46" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA46" s="74"/>
       <c r="AB46" s="90"/>
       <c r="AC46" s="90"/>
@@ -43421,7 +43442,7 @@
       <c r="P47" s="70"/>
       <c r="Q47" s="85"/>
       <c r="R47" s="74"/>
-      <c r="S47" s="169" t="s">
+      <c r="S47" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U47" s="88"/>
@@ -43429,7 +43450,9 @@
       <c r="W47" s="136"/>
       <c r="X47" s="137"/>
       <c r="Y47" s="72"/>
-      <c r="Z47" s="87"/>
+      <c r="Z47" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA47" s="74"/>
       <c r="AB47" s="90"/>
       <c r="AC47" s="90"/>
@@ -44478,7 +44501,7 @@
       <c r="P48" s="70"/>
       <c r="Q48" s="85"/>
       <c r="R48" s="74"/>
-      <c r="S48" s="169" t="s">
+      <c r="S48" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U48" s="88"/>
@@ -44486,7 +44509,9 @@
       <c r="W48" s="136"/>
       <c r="X48" s="137"/>
       <c r="Y48" s="72"/>
-      <c r="Z48" s="87"/>
+      <c r="Z48" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA48" s="74"/>
       <c r="AB48" s="90"/>
       <c r="AC48" s="90"/>
@@ -45535,7 +45560,7 @@
       <c r="P49" s="70"/>
       <c r="Q49" s="85"/>
       <c r="R49" s="74"/>
-      <c r="S49" s="169" t="s">
+      <c r="S49" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U49" s="88"/>
@@ -45543,7 +45568,9 @@
       <c r="W49" s="136"/>
       <c r="X49" s="137"/>
       <c r="Y49" s="72"/>
-      <c r="Z49" s="87"/>
+      <c r="Z49" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA49" s="74"/>
       <c r="AB49" s="90"/>
       <c r="AC49" s="90"/>
@@ -46592,7 +46619,7 @@
       <c r="P50" s="70"/>
       <c r="Q50" s="85"/>
       <c r="R50" s="74"/>
-      <c r="S50" s="169" t="s">
+      <c r="S50" s="158" t="s">
         <v>71</v>
       </c>
       <c r="T50"/>
@@ -46601,7 +46628,9 @@
       <c r="W50" s="136"/>
       <c r="X50" s="137"/>
       <c r="Y50" s="72"/>
-      <c r="Z50" s="87"/>
+      <c r="Z50" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA50" s="74"/>
       <c r="AB50" s="90"/>
       <c r="AC50" s="90"/>
@@ -46660,7 +46689,7 @@
       <c r="P51" s="70"/>
       <c r="Q51" s="85"/>
       <c r="R51" s="74"/>
-      <c r="S51" s="169" t="s">
+      <c r="S51" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U51" s="88"/>
@@ -46668,7 +46697,9 @@
       <c r="W51" s="136"/>
       <c r="X51" s="137"/>
       <c r="Y51" s="72"/>
-      <c r="Z51" s="87"/>
+      <c r="Z51" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA51" s="74"/>
       <c r="AB51" s="90"/>
       <c r="AC51" s="90"/>
@@ -47717,7 +47748,7 @@
       <c r="P52" s="70"/>
       <c r="Q52" s="85"/>
       <c r="R52" s="74"/>
-      <c r="S52" s="169" t="s">
+      <c r="S52" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U52" s="88"/>
@@ -47725,7 +47756,9 @@
       <c r="W52" s="136"/>
       <c r="X52" s="137"/>
       <c r="Y52" s="72"/>
-      <c r="Z52" s="87"/>
+      <c r="Z52" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA52" s="74"/>
       <c r="AB52" s="90"/>
       <c r="AC52" s="90"/>
@@ -48774,7 +48807,7 @@
       <c r="P53" s="70"/>
       <c r="Q53" s="85"/>
       <c r="R53" s="74"/>
-      <c r="S53" s="169" t="s">
+      <c r="S53" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U53" s="88"/>
@@ -48782,7 +48815,9 @@
       <c r="W53" s="136"/>
       <c r="X53" s="137"/>
       <c r="Y53" s="72"/>
-      <c r="Z53" s="87"/>
+      <c r="Z53" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA53" s="74"/>
       <c r="AB53" s="90"/>
       <c r="AC53" s="90"/>
@@ -49831,7 +49866,7 @@
       <c r="P54" s="70"/>
       <c r="Q54" s="85"/>
       <c r="R54" s="74"/>
-      <c r="S54" s="169" t="s">
+      <c r="S54" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U54" s="88"/>
@@ -49839,7 +49874,9 @@
       <c r="W54" s="136"/>
       <c r="X54" s="137"/>
       <c r="Y54" s="72"/>
-      <c r="Z54" s="87"/>
+      <c r="Z54" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA54" s="74"/>
       <c r="AB54" s="90"/>
       <c r="AC54" s="90"/>
@@ -50888,7 +50925,7 @@
       <c r="P55" s="70"/>
       <c r="Q55" s="85"/>
       <c r="R55" s="74"/>
-      <c r="S55" s="169" t="s">
+      <c r="S55" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U55" s="88"/>
@@ -50896,7 +50933,9 @@
       <c r="W55" s="136"/>
       <c r="X55" s="137"/>
       <c r="Y55" s="72"/>
-      <c r="Z55" s="87"/>
+      <c r="Z55" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA55" s="74"/>
       <c r="AB55" s="90"/>
       <c r="AC55" s="90"/>
@@ -51945,7 +51984,7 @@
       <c r="P56" s="70"/>
       <c r="Q56" s="85"/>
       <c r="R56" s="74"/>
-      <c r="S56" s="169" t="s">
+      <c r="S56" s="158" t="s">
         <v>71</v>
       </c>
       <c r="U56" s="88"/>
@@ -51953,7 +51992,9 @@
       <c r="W56" s="136"/>
       <c r="X56" s="137"/>
       <c r="Y56" s="72"/>
-      <c r="Z56" s="87"/>
+      <c r="Z56" s="87" t="s">
+        <v>842</v>
+      </c>
       <c r="AA56" s="74"/>
       <c r="AB56" s="90"/>
       <c r="AC56" s="90"/>
